--- a/xlsx/退伍军人节_intext.xlsx
+++ b/xlsx/退伍军人节_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国节日</t>
   </si>
   <si>
-    <t>政策_政策_美國_退伍军人节</t>
+    <t>政策_政策_美国_退伍军人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/11%E6%9C%8811%E6%97%A5</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AE%A4%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>國殤紀念日</t>
+    <t>国殇纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93%E5%8D%80</t>
   </si>
   <si>
-    <t>曼哈頓區</t>
+    <t>曼哈顿区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%A4%A7%E9%81%93</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>Template talk-美國節日</t>
+    <t>Template talk-美国节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%81%B0%E6%98%9F%E6%9C%9F%E4%B8%89</t>
   </si>
   <si>
-    <t>聖灰星期三</t>
+    <t>圣灰星期三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%AF%E8%8A%82</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E8%8A%82</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%BA%E6%82%94%E6%98%9F%E6%9C%9F%E4%BA%8C</t>
   </si>
   <si>
-    <t>懺悔星期二</t>
+    <t>忏悔星期二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%9E%9D%E4%B8%BB%E6%97%A5</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E4%BD%9C%E5%93%81%E7%89%88%E6%AC%8A</t>
   </si>
   <si>
-    <t>美國政府作品版權</t>
+    <t>美国政府作品版权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A2%86%E5%9F%9F</t>
